--- a/uploads/STT - Sidratul Tanzila Tasmi.xlsx
+++ b/uploads/STT - Sidratul Tanzila Tasmi.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>United International University</t>
   </si>
@@ -82,6 +82,9 @@
     <t>SAT</t>
   </si>
   <si>
+    <t>CnH</t>
+  </si>
+  <si>
     <t>CSE 3313 (L): 324</t>
   </si>
   <si>
@@ -101,6 +104,10 @@
   </si>
   <si>
     <t>MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH
+</t>
   </si>
   <si>
     <t>TUE</t>
@@ -234,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -256,9 +263,12 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
@@ -644,79 +654,103 @@
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -724,24 +758,30 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7"/>
     </row>
@@ -777,7 +817,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -785,19 +825,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -805,17 +845,17 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="7"/>
@@ -824,15 +864,15 @@
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="7"/>
@@ -869,32 +909,32 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="10">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11">
         <v>16.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="10">
+        <v>41</v>
+      </c>
+      <c r="F27" s="11">
         <f>4/3 * COUNTIF($B$14:$M$18, "CnH*") + 2.5 * COUNTIF($B$23:$M$24, "CnH*")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="10">
+        <v>42</v>
+      </c>
+      <c r="I27" s="11">
         <f>4/3 * COUNTIF($B$14:$M$18, "OH*") + 2.5 * COUNTIF($B$23:$M$24, "OH*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="10">
+        <v>43</v>
+      </c>
+      <c r="M27" s="11">
         <f>C27+F27+I27</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -957,23 +997,23 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
-        <v>42</v>
+      <c r="A33" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="11" t="s">
-        <v>43</v>
+      <c r="H33" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
-        <v>44</v>
+      <c r="A34" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -981,8 +1021,8 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="11" t="s">
-        <v>44</v>
+      <c r="H34" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
